--- a/metadata/metadata_17Apr2023.xlsx
+++ b/metadata/metadata_17Apr2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/stegino_metadata/newMetadata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mab/Documents/GitHub/bryozoa/bryo_metadata/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E7A96CA-51AD-6547-B447-004BA95B9B36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BD9CE7-A049-EA4D-8AD7-3EAF0050ED6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="780" windowWidth="26040" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="880" windowWidth="26040" windowHeight="17120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="image_merge_txt" sheetId="1" r:id="rId1"/>
@@ -10976,7 +10976,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -10985,7 +10985,6 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -11435,9 +11434,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V1969"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1962" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D1970" sqref="D1970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -22612,10 +22611,10 @@
       </c>
     </row>
     <row r="248" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A248" s="8" t="s">
+      <c r="A248" t="s">
         <v>1471</v>
       </c>
-      <c r="B248" s="8" t="s">
+      <c r="B248" t="s">
         <v>1471</v>
       </c>
       <c r="C248" t="s">
@@ -22659,10 +22658,10 @@
       </c>
     </row>
     <row r="249" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A249" s="8" t="s">
+      <c r="A249" t="s">
         <v>1472</v>
       </c>
-      <c r="B249" s="8" t="s">
+      <c r="B249" t="s">
         <v>1472</v>
       </c>
       <c r="C249" t="s">
@@ -22706,10 +22705,10 @@
       </c>
     </row>
     <row r="250" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A250" s="8" t="s">
+      <c r="A250" t="s">
         <v>1473</v>
       </c>
-      <c r="B250" s="8" t="s">
+      <c r="B250" t="s">
         <v>1473</v>
       </c>
       <c r="C250" t="s">
@@ -22753,10 +22752,10 @@
       </c>
     </row>
     <row r="251" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A251" s="8" t="s">
+      <c r="A251" t="s">
         <v>1474</v>
       </c>
-      <c r="B251" s="8" t="s">
+      <c r="B251" t="s">
         <v>1474</v>
       </c>
       <c r="C251" t="s">
@@ -24102,7 +24101,7 @@
       </c>
     </row>
     <row r="282" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A282" s="8" t="s">
+      <c r="A282" t="s">
         <v>3465</v>
       </c>
       <c r="B282" s="3" t="s">
@@ -38664,10 +38663,10 @@
       </c>
     </row>
     <row r="613" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A613" s="8" t="s">
+      <c r="A613" t="s">
         <v>1732</v>
       </c>
-      <c r="B613" s="8" t="s">
+      <c r="B613" t="s">
         <v>1732</v>
       </c>
       <c r="C613" t="s">
@@ -38714,7 +38713,7 @@
       <c r="A614" s="5" t="s">
         <v>1733</v>
       </c>
-      <c r="B614" s="8" t="s">
+      <c r="B614" t="s">
         <v>1733</v>
       </c>
       <c r="C614" t="s">
@@ -38764,10 +38763,10 @@
       </c>
     </row>
     <row r="615" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A615" s="8" t="s">
+      <c r="A615" t="s">
         <v>1734</v>
       </c>
-      <c r="B615" s="8" t="s">
+      <c r="B615" t="s">
         <v>1734</v>
       </c>
       <c r="C615" t="s">
@@ -38814,7 +38813,7 @@
       <c r="A616" s="5" t="s">
         <v>1735</v>
       </c>
-      <c r="B616" s="8" t="s">
+      <c r="B616" t="s">
         <v>1735</v>
       </c>
       <c r="C616" t="s">
@@ -52118,10 +52117,10 @@
       </c>
     </row>
     <row r="920" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A920" s="8" t="s">
+      <c r="A920" t="s">
         <v>2005</v>
       </c>
-      <c r="B920" s="8" t="s">
+      <c r="B920" t="s">
         <v>2005</v>
       </c>
       <c r="C920" t="s">
@@ -52162,10 +52161,10 @@
       </c>
     </row>
     <row r="921" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A921" s="8" t="s">
+      <c r="A921" t="s">
         <v>2006</v>
       </c>
-      <c r="B921" s="8" t="s">
+      <c r="B921" t="s">
         <v>2006</v>
       </c>
       <c r="C921" t="s">
@@ -74184,7 +74183,7 @@
       </c>
     </row>
     <row r="1428" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1428" s="8" t="s">
+      <c r="A1428" t="s">
         <v>2326</v>
       </c>
       <c r="B1428" s="3" t="s">
@@ -74228,7 +74227,7 @@
       </c>
     </row>
     <row r="1429" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1429" s="9" t="s">
+      <c r="A1429" s="8" t="s">
         <v>3473</v>
       </c>
       <c r="B1429" s="3" t="s">
@@ -74272,7 +74271,7 @@
       </c>
     </row>
     <row r="1430" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1430" s="8" t="s">
+      <c r="A1430" t="s">
         <v>2327</v>
       </c>
       <c r="B1430" s="3" t="s">
@@ -74316,7 +74315,7 @@
       </c>
     </row>
     <row r="1431" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A1431" s="9" t="s">
+      <c r="A1431" s="8" t="s">
         <v>3473</v>
       </c>
       <c r="B1431" s="3" t="s">
@@ -98097,32 +98096,32 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:T1969">
     <sortCondition ref="C2:C1969"/>
   </sortState>
+  <conditionalFormatting sqref="A248:A251">
+    <cfRule type="duplicateValues" dxfId="8" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A282">
+    <cfRule type="duplicateValues" dxfId="7" priority="4"/>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A437:A440">
-    <cfRule type="duplicateValues" dxfId="8" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A920:A921">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1428">
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1430">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1717:A1794">
-    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="8"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1822:A1823">
-    <cfRule type="duplicateValues" dxfId="6" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A248:A251">
-    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A282">
-    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A920:A921">
-    <cfRule type="duplicateValues" dxfId="2" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1428">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A1430">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
